--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H2">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I2">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J2">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>242.6428898158136</v>
+        <v>222.9630959474907</v>
       </c>
       <c r="R2">
-        <v>2183.786008342322</v>
+        <v>2006.667863527416</v>
       </c>
       <c r="S2">
-        <v>0.0001840741012229155</v>
+        <v>0.0001932897171623247</v>
       </c>
       <c r="T2">
-        <v>0.0001935579300541361</v>
+        <v>0.000210234023253623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H3">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I3">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J3">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>932.8658089007167</v>
+        <v>1119.783846453869</v>
       </c>
       <c r="R3">
-        <v>8395.792280106451</v>
+        <v>10078.05461808482</v>
       </c>
       <c r="S3">
-        <v>0.0007076920138287783</v>
+        <v>0.0009707557299750718</v>
       </c>
       <c r="T3">
-        <v>0.0007441535794688357</v>
+        <v>0.001055854836487633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H4">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I4">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J4">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>1576.570986252505</v>
+        <v>2330.42142660474</v>
       </c>
       <c r="R4">
-        <v>14189.13887627255</v>
+        <v>20973.79283944266</v>
       </c>
       <c r="S4">
-        <v>0.001196020569689251</v>
+        <v>0.002020273787925579</v>
       </c>
       <c r="T4">
-        <v>0.001257641700995579</v>
+        <v>0.00219737652237725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H5">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I5">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J5">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>784.0447197138674</v>
+        <v>1138.728722274615</v>
       </c>
       <c r="R5">
-        <v>4704.268318283204</v>
+        <v>6832.372333647691</v>
       </c>
       <c r="S5">
-        <v>0.0005947931431638309</v>
+        <v>0.0009871792985190332</v>
       </c>
       <c r="T5">
-        <v>0.0004169586372601278</v>
+        <v>0.0007158120933598509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H6">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I6">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J6">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>3639.855391182262</v>
+        <v>1701.686581071155</v>
       </c>
       <c r="R6">
-        <v>32758.69852064036</v>
+        <v>15315.1792296404</v>
       </c>
       <c r="S6">
-        <v>0.002761272379429075</v>
+        <v>0.00147521506443214</v>
       </c>
       <c r="T6">
-        <v>0.002903538099749878</v>
+        <v>0.001604536458085174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
         <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J7">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>1280.095496242929</v>
+        <v>979.9248329425798</v>
       </c>
       <c r="R7">
-        <v>11520.85946618636</v>
+        <v>8819.323496483217</v>
       </c>
       <c r="S7">
-        <v>0.0009711079031793764</v>
+        <v>0.0008495100635148012</v>
       </c>
       <c r="T7">
-        <v>0.001021141129305226</v>
+        <v>0.0009239804427732317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
         <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J8">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
-        <v>4921.460181583274</v>
+        <v>4921.460181583275</v>
       </c>
       <c r="R8">
-        <v>44293.14163424947</v>
+        <v>44293.14163424948</v>
       </c>
       <c r="S8">
-        <v>0.003733525265533114</v>
+        <v>0.004266480255315007</v>
       </c>
       <c r="T8">
-        <v>0.003925883203559789</v>
+        <v>0.004640491601804933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
         <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J9">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>8317.414207113421</v>
+        <v>10242.22334842924</v>
       </c>
       <c r="R9">
-        <v>74856.72786402078</v>
+        <v>92180.01013586317</v>
       </c>
       <c r="S9">
-        <v>0.006309768836973897</v>
+        <v>0.008879121657861635</v>
       </c>
       <c r="T9">
-        <v>0.006634859478280151</v>
+        <v>0.009657489785258372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H10">
         <v>182.133932</v>
       </c>
       <c r="I10">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J10">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>4136.33432787018</v>
+        <v>5004.723082983491</v>
       </c>
       <c r="R10">
-        <v>24818.00596722107</v>
+        <v>30028.33849790095</v>
       </c>
       <c r="S10">
-        <v>0.003137911950925726</v>
+        <v>0.00433866198832051</v>
       </c>
       <c r="T10">
-        <v>0.002199721879678558</v>
+        <v>0.003146000655503656</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H11">
         <v>182.133932</v>
       </c>
       <c r="I11">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J11">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>19202.55111025428</v>
+        <v>7478.927988466283</v>
       </c>
       <c r="R11">
-        <v>172822.9599922885</v>
+        <v>67310.35189619655</v>
       </c>
       <c r="S11">
-        <v>0.01456746719217812</v>
+        <v>0.006483583614700483</v>
       </c>
       <c r="T11">
-        <v>0.01531800930775652</v>
+        <v>0.007051952315057943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H12">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I12">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J12">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>24115.27367649706</v>
+        <v>8417.989647233237</v>
       </c>
       <c r="R12">
-        <v>217037.4630884735</v>
+        <v>75761.90682509914</v>
       </c>
       <c r="S12">
-        <v>0.01829436391528061</v>
+        <v>0.00729766884100087</v>
       </c>
       <c r="T12">
-        <v>0.01923692245445538</v>
+        <v>0.007937402482346128</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H13">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I13">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J13">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>92713.67606182149</v>
+        <v>42277.52932174768</v>
       </c>
       <c r="R13">
-        <v>834423.0845563934</v>
+        <v>380497.7638957291</v>
       </c>
       <c r="S13">
-        <v>0.0703345834906063</v>
+        <v>0.03665096077983693</v>
       </c>
       <c r="T13">
-        <v>0.07395834775895554</v>
+        <v>0.03986388440097396</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H14">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I14">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J14">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>156688.872411485</v>
+        <v>87985.24867751772</v>
       </c>
       <c r="R14">
-        <v>1410199.851703365</v>
+        <v>791867.2380976595</v>
       </c>
       <c r="S14">
-        <v>0.1188675397934387</v>
+        <v>0.07627559959671255</v>
       </c>
       <c r="T14">
-        <v>0.1249918092778464</v>
+        <v>0.08296212760160701</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H15">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I15">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J15">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>77922.96326863189</v>
+        <v>42992.79463437467</v>
       </c>
       <c r="R15">
-        <v>467537.7796117914</v>
+        <v>257956.767806248</v>
       </c>
       <c r="S15">
-        <v>0.05911403148547924</v>
+        <v>0.03727103393313693</v>
       </c>
       <c r="T15">
-        <v>0.04143979515303289</v>
+        <v>0.02702554324365262</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H16">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I16">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J16">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N16">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O16">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P16">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q16">
-        <v>361750.1793185161</v>
+        <v>64247.31393964089</v>
       </c>
       <c r="R16">
-        <v>3255751.613866645</v>
+        <v>578225.825456768</v>
       </c>
       <c r="S16">
-        <v>0.2744314460474441</v>
+        <v>0.05569686358659495</v>
       </c>
       <c r="T16">
-        <v>0.2885706478304611</v>
+        <v>0.06057940322083736</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H17">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I17">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J17">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N17">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O17">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P17">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q17">
-        <v>1745.375680524886</v>
+        <v>2807.906773906302</v>
       </c>
       <c r="R17">
-        <v>10472.25408314931</v>
+        <v>16847.44064343781</v>
       </c>
       <c r="S17">
-        <v>0.001324079431846654</v>
+        <v>0.002434212280019396</v>
       </c>
       <c r="T17">
-        <v>0.0009281989240667451</v>
+        <v>0.001765067997735514</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H18">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I18">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J18">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P18">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q18">
-        <v>6710.278208788348</v>
+        <v>14102.10346428435</v>
       </c>
       <c r="R18">
-        <v>40261.66925273009</v>
+        <v>84612.62078570608</v>
       </c>
       <c r="S18">
-        <v>0.005090560993466746</v>
+        <v>0.01222530382627672</v>
       </c>
       <c r="T18">
-        <v>0.003568557235604879</v>
+        <v>0.008864671632575377</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H19">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I19">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J19">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N19">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O19">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P19">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q19">
-        <v>11340.56992197478</v>
+        <v>29348.38199125518</v>
       </c>
       <c r="R19">
-        <v>68043.41953184866</v>
+        <v>176090.2919475311</v>
       </c>
       <c r="S19">
-        <v>0.00860319961292799</v>
+        <v>0.02544250845708362</v>
       </c>
       <c r="T19">
-        <v>0.00603096795568683</v>
+        <v>0.01844857896261851</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H20">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I20">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J20">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N20">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O20">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P20">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q20">
-        <v>5639.780284809933</v>
+        <v>14340.68754440681</v>
       </c>
       <c r="R20">
-        <v>22559.12113923973</v>
+        <v>57362.75017762723</v>
       </c>
       <c r="S20">
-        <v>0.004278458304750412</v>
+        <v>0.01243213558545342</v>
       </c>
       <c r="T20">
-        <v>0.00199950763255704</v>
+        <v>0.006009764731835647</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H21">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I21">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J21">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N21">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O21">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P21">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q21">
-        <v>26182.16047962218</v>
+        <v>21430.35042525802</v>
       </c>
       <c r="R21">
-        <v>157092.9628777331</v>
+        <v>128582.1025515481</v>
       </c>
       <c r="S21">
-        <v>0.01986234858156761</v>
+        <v>0.0185782600245341</v>
       </c>
       <c r="T21">
-        <v>0.01392379500762825</v>
+        <v>0.01347125412688037</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H22">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I22">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J22">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N22">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O22">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P22">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q22">
-        <v>17188.52210578146</v>
+        <v>27056.67778247573</v>
       </c>
       <c r="R22">
-        <v>154696.6989520332</v>
+        <v>243510.1000422816</v>
       </c>
       <c r="S22">
-        <v>0.01303958158581796</v>
+        <v>0.02345579914784883</v>
       </c>
       <c r="T22">
-        <v>0.01371140428639914</v>
+        <v>0.02551199875438762</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H23">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I23">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J23">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P23">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q23">
-        <v>66083.05971870544</v>
+        <v>135886.3025774405</v>
       </c>
       <c r="R23">
-        <v>594747.537468349</v>
+        <v>1222976.723196964</v>
       </c>
       <c r="S23">
-        <v>0.05013202667102503</v>
+        <v>0.1178016697328836</v>
       </c>
       <c r="T23">
-        <v>0.05271491886906662</v>
+        <v>0.128128486799638</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H24">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I24">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J24">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N24">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O24">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P24">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q24">
-        <v>111682.3380611121</v>
+        <v>282797.7489686068</v>
       </c>
       <c r="R24">
-        <v>1005141.042550009</v>
+        <v>2545179.740717461</v>
       </c>
       <c r="S24">
-        <v>0.08472461738597879</v>
+        <v>0.2451611854419054</v>
       </c>
       <c r="T24">
-        <v>0.08908978208726512</v>
+        <v>0.2666526865358027</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H25">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I25">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J25">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N25">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O25">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P25">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q25">
-        <v>55540.75788889958</v>
+        <v>138185.2722725494</v>
       </c>
       <c r="R25">
-        <v>333244.5473333975</v>
+        <v>829111.6336352964</v>
       </c>
       <c r="S25">
-        <v>0.04213441035671529</v>
+        <v>0.1197946775902782</v>
       </c>
       <c r="T25">
-        <v>0.02953683398340048</v>
+        <v>0.08686413812354893</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H26">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I26">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J26">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N26">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O26">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P26">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q26">
-        <v>257842.8525174395</v>
+        <v>206500.4763014603</v>
       </c>
       <c r="R26">
-        <v>2320585.672656956</v>
+        <v>1858504.286713142</v>
       </c>
       <c r="S26">
-        <v>0.1956051189875304</v>
+        <v>0.1790180499987079</v>
       </c>
       <c r="T26">
-        <v>0.2056830465974647</v>
+        <v>0.1947112626515986</v>
       </c>
     </row>
   </sheetData>
